--- a/va_facility_data_2025-02-20/West Norriton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''West%20Norriton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/West Norriton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''West%20Norriton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8e53b666d06e487d842661d3bc6eb96f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R55a4affe4e8e456c8f4892ae232cc5df"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf4352a8d1ece4694a6cadaec31c791d2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1a34ad22b9234339bcb1a4254f6bedaf"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R89214d73f5394e1a92dd0fc6d4827d7b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R517d744249bd487888b5dae8ef978a8b"/>
   </x:sheets>
 </x:workbook>
 </file>
